--- a/public/templates/walikelas-import-template.xlsx
+++ b/public/templates/walikelas-import-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Application\Tefa Project\ramadhan-activity-managemen-laravel\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ramadhan-activity-managemen-laravel\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B92D7DB-32A7-4643-B0D1-1A4AA00FC653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B6C0F4-A9F9-47F2-A459-90EE771E180F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="2724" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,10 +287,14 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
